--- a/data/taxonomy_additions/Taxonomy_additions.xlsx
+++ b/data/taxonomy_additions/Taxonomy_additions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="128">
   <si>
     <t>Scientific Name with Authority</t>
   </si>
@@ -442,15 +442,6 @@
     <t>Download Quick Help 9: Understanding Properly Formatted Scientific Names from ServCat to learn how to correctly format the scientific name.</t>
   </si>
   <si>
-    <t>Spider/Scorpion|Unspecified</t>
-  </si>
-  <si>
-    <t>Eriophyidae sp. BOLD:ADI3742</t>
-  </si>
-  <si>
-    <t>http://boldsystems.org/index.php/Public_BarcodeCluster?clusteruri=BOLD:ADI3742</t>
-  </si>
-  <si>
     <t>Insect|Genus</t>
   </si>
   <si>
@@ -485,42 +476,6 @@
   </si>
   <si>
     <t>https://www.gbif.org/species/10296134</t>
-  </si>
-  <si>
-    <t>Erythraeus tonsus</t>
-  </si>
-  <si>
-    <t>Erythraeus tonsus (L. Koch, 1879)</t>
-  </si>
-  <si>
-    <t>Erythraeus</t>
-  </si>
-  <si>
-    <t>Erythraeus Latreille, 1805</t>
-  </si>
-  <si>
-    <t>&lt;em&gt;Erythraeus&lt;/em&gt; &lt;em&gt;tonsus&lt;/em&gt;</t>
-  </si>
-  <si>
-    <t>&lt;em&gt;Erythraeus&lt;/em&gt; &lt;em&gt;tonsus&lt;/em&gt; (L. Koch, 1879)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;em&gt;Erythraeus&lt;/em&gt; </t>
-  </si>
-  <si>
-    <t>&lt;em&gt;Erythraeus&lt;/em&gt; Latreille, 1805</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/01647951003591766</t>
-  </si>
-  <si>
-    <t>https://www.gbif.org/species/6756850</t>
-  </si>
-  <si>
-    <t>Spider/Scorpion|Species</t>
-  </si>
-  <si>
-    <t>Spider/Scorpion|Genus</t>
   </si>
 </sst>
 </file>
@@ -693,27 +648,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1288,11 +1223,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1291,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>116</v>
@@ -1365,33 +1300,33 @@
         <v>117</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="12">
-        <v>885083</v>
+        <v>10556</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>123</v>
@@ -1399,121 +1334,28 @@
       <c r="F3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="12">
-        <v>10556</v>
+      <c r="H3" s="12">
+        <v>2</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="12">
-        <v>5</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="12">
-        <v>885071</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>140</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D4 D7:D1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Positive Integers only" error="Only positive integers are allowed in the ID column." sqref="A1:A1048576">
@@ -1532,7 +1374,7 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$A$2:$A$927</formula1>
+      <formula1>$A$2:$A$924</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,16 +1702,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A6:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 C1 C8:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6 D1 D9:D1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G6 G8:G1048576">
@@ -5494,15 +5336,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
     <Name>Document ID Generator</Name>
@@ -5547,45 +5380,16 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FinalDel xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">false</FinalDel>
-    <ka8aab2ab8224e0695cc7b5356d06aef xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">IMD</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a91fd69b-97f8-4ca9-9612-2465a56690c0</TermId>
-        </TermInfo>
-      </Terms>
-    </ka8aab2ab8224e0695cc7b5356d06aef>
-    <j9add0d2db884c689b68553fead24975 xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taxonomy</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">142b6aa6-14af-44d5-a482-c1af7b57b297</TermId>
-        </TermInfo>
-      </Terms>
-    </j9add0d2db884c689b68553fead24975>
-    <_dlc_DocId xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">HDAZSPZUFV6T-1059-12</_dlc_DocId>
-    <TaxCatchAll xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
-      <Value>934</Value>
-      <Value>395</Value>
-    </TaxCatchAll>
-    <ArchContent xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">false</ArchContent>
-    <KpiDescription xmlns="http://schemas.microsoft.com/sharepoint/v3">Draft Electronic Data Deliverable (EDD) for batch load of taxon records to Taxonomy.</KpiDescription>
-    <_dlc_DocIdUrl xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
-      <Url>https://nrss.sharepoint.nps.gov/div/imd/co/irma/_layouts/DocIdRedir.aspx?ID=HDAZSPZUFV6T-1059-12</Url>
-      <Description>HDAZSPZUFV6T-1059-12</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Other Content" ma:contentTypeID="0x0101000369F4E336BE6248A5FAEDCEB8DA0DAE061300945D0A02AE6B6B4CB6A222311EE2147A" ma:contentTypeVersion="10" ma:contentTypeDescription="Catch all bucket for everything else not fitting under another content type for the project. " ma:contentTypeScope="" ma:versionID="3a543d46be299152b17bb026b54c55fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0c7fc5b747229e76245c7ff85f8b9e1" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5803,7 +5607,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FinalDel xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">false</FinalDel>
+    <ka8aab2ab8224e0695cc7b5356d06aef xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">IMD</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a91fd69b-97f8-4ca9-9612-2465a56690c0</TermId>
+        </TermInfo>
+      </Terms>
+    </ka8aab2ab8224e0695cc7b5356d06aef>
+    <j9add0d2db884c689b68553fead24975 xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taxonomy</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">142b6aa6-14af-44d5-a482-c1af7b57b297</TermId>
+        </TermInfo>
+      </Terms>
+    </j9add0d2db884c689b68553fead24975>
+    <_dlc_DocId xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">HDAZSPZUFV6T-1059-12</_dlc_DocId>
+    <TaxCatchAll xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
+      <Value>934</Value>
+      <Value>395</Value>
+    </TaxCatchAll>
+    <ArchContent xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">false</ArchContent>
+    <KpiDescription xmlns="http://schemas.microsoft.com/sharepoint/v3">Draft Electronic Data Deliverable (EDD) for batch load of taxon records to Taxonomy.</KpiDescription>
+    <_dlc_DocIdUrl xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
+      <Url>https://nrss.sharepoint.nps.gov/div/imd/co/irma/_layouts/DocIdRedir.aspx?ID=HDAZSPZUFV6T-1059-12</Url>
+      <Description>HDAZSPZUFV6T-1059-12</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEAF0FC-C686-46B5-BD8F-92FE129ED9A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B796EF64-841D-4FA0-9A82-9CBF4A2112C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5811,32 +5661,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEAF0FC-C686-46B5-BD8F-92FE129ED9A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D834B1-5D0B-462D-A423-7D3D4ABAD784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A28C5D-483C-4E1D-84EE-E79440036366}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5853,4 +5678,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D834B1-5D0B-462D-A423-7D3D4ABAD784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2f7f3c08-2512-4e1c-9e4b-e5327eed3f75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>